--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_South Georgia.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_South Georgia.xlsx
@@ -4276,13 +4276,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7ACA8C-8A7E-4A7A-ACD4-241BFCA399A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E817A3-9B0B-4DC4-A432-D7C112BDDC3D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1956D0F0-6C97-4B86-AF1D-1FA4B042D639}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC82F82-E7EB-4A54-91D8-BDDFCE3C51A8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6695C3C7-B563-4DFA-A93C-A7DC0E007312}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF7B8472-7A4D-447E-BD8D-5675E840562A}"/>
 </file>